--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_à_Chypre/Pandémie_de_Covid-19_à_Chypre.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_à_Chypre/Pandémie_de_Covid-19_à_Chypre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Chypre</t>
+          <t>Pandémie_de_Covid-19_à_Chypre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 à Chypre démarre officiellement le 9 mars 2020. À la date du 5 novembre 2022, le bilan est de 1 200 morts.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Chypre</t>
+          <t>Pandémie_de_Covid-19_à_Chypre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le 9 mars, Chypre confirme ses premiers cas de coronavirus: un homme de 25 ans habitant à Limassol qui revenait d'Italie et un homme âgé de 64 ans, professionnel de santé de Nicosie qui revenait du Royaume-Uni[2].
-Le 11 mars, le pays confirme quatre nouveaux cas[3].
-Le 12 mars, quatre nouveaux cas sont confirmés : une personne revenant du Royaume-Uni qui a pris contact avec les autorités après le développement de symptômes[4], une personne en provenance d'Italie, un individu présentant des symptômes en provenance de Grèce et une personne asymptomatique de retour d'Allemagne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le 9 mars, Chypre confirme ses premiers cas de coronavirus: un homme de 25 ans habitant à Limassol qui revenait d'Italie et un homme âgé de 64 ans, professionnel de santé de Nicosie qui revenait du Royaume-Uni.
+Le 11 mars, le pays confirme quatre nouveaux cas.
+Le 12 mars, quatre nouveaux cas sont confirmés : une personne revenant du Royaume-Uni qui a pris contact avec les autorités après le développement de symptômes, une personne en provenance d'Italie, un individu présentant des symptômes en provenance de Grèce et une personne asymptomatique de retour d'Allemagne.
 Le 13 mars, le pays confirme onze nouveaux cas.</t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Chypre</t>
+          <t>Pandémie_de_Covid-19_à_Chypre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
